--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_132.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_132.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,650 +488,644 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_87</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.08175872093023256</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'D'], ['A', 'D', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_194</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3238636363636364</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D'], ['A', 'D', 'B']]</t>
+          <t>[['C:min', 'G:maj/B', 'C:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(66.427052, 71.593492), (61.237392, 66.427052)]</t>
+          <t>[['E:min', 'B:maj', 'E:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(26.987959, 33.059977), (14.704603, 21.995668)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+          <t>[('0:00:16.240000', '0:00:19.080000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:22.500000', '0:01:30.740000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_225</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1714285714285714</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min/b7']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_43</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1441647597254004</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(40.049, 48.539)]</t>
+          <t>[['E', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(35.82, 37.76)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:41.080000', '0:00:43.260000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:01.480839', '0:00:06.357029')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_101</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3382352941176471</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>isophonics_185</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_73</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1325665859564165</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C#', 'F#/5', 'C#']]</t>
+          <t>[['B:min', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(82.290863, 90.185647)]</t>
+          <t>[['E:min', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(31.46941, 118.925813)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:48.617346', '0:00:59.937074')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:05.416621', '0:00:08.435215')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G']]</t>
-        </is>
+          <t>isophonics_123</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_43</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1742286751361161</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(37.936167, 42.951678)]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(75.8, 79.6)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:08.413696', '0:00:12.303038')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:06.357029', '0:00:26.140430')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_227</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.13125</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>isophonics_231</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_127</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07899515738498789</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min/b3']]</t>
+          <t>[['D/5', 'G', 'C'], ['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(32.2, 33.7)]</t>
+          <t>[['A', 'D', 'G'], ['G', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(5.67204, 8.841564)]</t>
+          <t>[('0:00:38.435396', '0:00:43.311587'), ('0:00:17.014988', '0:00:20.892721')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:00.440395', '0:00:09.431879'), ('0:00:12.241493', '0:00:16.525575')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(142.14, 147.86)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(124.92, 129.32)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:01.420000', '0:01:11')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:04.340000', '0:00:17.660000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_99</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1125</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'C#:min']]</t>
-        </is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4166666666666666</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'C#:min']]</t>
+          <t>[['E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(21.763469, 25.385782)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(14.073123, 19.123463)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:37.995918', '0:00:52.299410')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:51.920000', '0:01:55.980000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_77</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2769230769230769</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'D:maj/2', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'D', 'E']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(27.877925, 52.293707)]</t>
+          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(45.912222, 55.966462)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
-        </is>
-      </c>
+          <t>[('0:01:02.200000', '0:01:04.500000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:18.460000', '0:01:27.700000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(3.7, 7.5)]</t>
+          <t>[('0:00:59.220000', '0:01:06.880000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_70</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_39</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.03103745569498994</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Ab:7', 'Db', 'Db']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(38.31, 41.1)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(34.65, 37.76)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:05.440000', '0:01:06.820000'), ('0:01:03.600000', '0:01:06.040000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:01.340000', '0:00:08.860000'), ('0:00:54.180000', '0:01:01.460000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.150268336314848</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_190</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_204</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(32.44, 34.8)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(33.14, 37.24)]</t>
+          <t>[('0:00:41', '0:00:45.320000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:43.100000', '0:00:47.740000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_166</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2527173913043478</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'D:7'], ['G', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:maj/A', 'C:7'], ['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.440395, 12.905056), (17.839297, 22.785147)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(17.94, 20.12), (40.96, 43.3)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1405405405405405</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(9.62, 14.18)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1806020066889632</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_187</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C', 'Bb/5', 'F']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(53.714217, 67.077301)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(31.217551, 34.874693)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
+          <t>[('0:00:16.380000', '0:01:35.260000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:13.400000', '0:01:28.140000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1821946169772257</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_178</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:maj/A']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(64.08, 73.88)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(16.8, 20.08)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_3</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1277777777777778</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['C:7', 'F:maj', 'C:7']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb:min', 'Eb:min'], ['Bb:7', 'Eb', 'Bb:7']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(36.28, 38.0), (64.48, 71.02)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(6.96, 9.2), (44.07, 46.31)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:00.220000', '0:00:15.080000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:01.140000', '0:00:16.460000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
